--- a/NformTester/NformTester/keywordscripts/TST936_DevicesSupportedByNformG2Product.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST936_DevicesSupportedByNformG2Product.xlsx
@@ -3974,9 +3974,6 @@
     <t>Uptime Devices RPM CM</t>
   </si>
   <si>
-    <t>Emerson Energy Systems (EES) Actura</t>
-  </si>
-  <si>
     <t>;Try to adding SNMP devices in the NformG2 product and verify whether the same gets added or not. Nform 4.7.2.0 has 103 device type.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4145,6 +4142,10 @@
   </si>
   <si>
     <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emerson ES (EES) Actura / NetSure</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5095,7 +5096,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O741"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G518" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J522" sqref="J522"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -5307,7 +5310,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -5326,13 +5329,13 @@
         <v>765</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>19</v>
@@ -5363,7 +5366,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>19</v>
@@ -5390,7 +5393,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>241</v>
@@ -5419,7 +5422,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>254</v>
@@ -5431,7 +5434,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -5450,7 +5453,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>254</v>
@@ -5462,7 +5465,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="5"/>
@@ -5481,7 +5484,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>254</v>
@@ -5493,7 +5496,7 @@
         <v>4</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -5512,7 +5515,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>254</v>
@@ -5524,7 +5527,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -5543,7 +5546,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>254</v>
@@ -5555,7 +5558,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -5574,7 +5577,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>254</v>
@@ -5586,7 +5589,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="5"/>
@@ -5605,7 +5608,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>254</v>
@@ -5617,7 +5620,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="5"/>
@@ -5636,7 +5639,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>254</v>
@@ -5645,10 +5648,10 @@
         <v>261</v>
       </c>
       <c r="G18" s="11" t="s">
+        <v>918</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>919</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>920</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -5669,7 +5672,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>254</v>
@@ -5678,10 +5681,10 @@
         <v>173</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -5700,7 +5703,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>254</v>
@@ -5712,7 +5715,7 @@
         <v>4</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -5731,7 +5734,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>254</v>
@@ -5743,10 +5746,10 @@
         <v>7</v>
       </c>
       <c r="H21" s="11" t="s">
+        <v>922</v>
+      </c>
+      <c r="I21" s="11" t="s">
         <v>923</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>924</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -5760,7 +5763,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>254</v>
@@ -5772,7 +5775,7 @@
         <v>13</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="5"/>
@@ -5787,7 +5790,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>254</v>
@@ -5799,7 +5802,7 @@
         <v>13</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -5814,7 +5817,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>254</v>
@@ -5839,7 +5842,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>254</v>
@@ -5864,7 +5867,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>254</v>
@@ -5889,7 +5892,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>254</v>
@@ -5914,7 +5917,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>254</v>
@@ -5939,7 +5942,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>254</v>
@@ -5964,7 +5967,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>206</v>
@@ -5989,7 +5992,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>254</v>
@@ -6014,7 +6017,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>756</v>
@@ -6037,7 +6040,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>241</v>
@@ -6062,7 +6065,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>254</v>
@@ -6074,7 +6077,7 @@
         <v>4</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -6089,7 +6092,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>254</v>
@@ -6101,7 +6104,7 @@
         <v>4</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="5"/>
@@ -6116,7 +6119,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>254</v>
@@ -6128,7 +6131,7 @@
         <v>4</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -6143,7 +6146,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>254</v>
@@ -6155,7 +6158,7 @@
         <v>4</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -6170,7 +6173,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>254</v>
@@ -6182,7 +6185,7 @@
         <v>4</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -6197,7 +6200,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>254</v>
@@ -6209,7 +6212,7 @@
         <v>4</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="5"/>
@@ -6224,7 +6227,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>254</v>
@@ -6236,7 +6239,7 @@
         <v>4</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="5"/>
@@ -6251,7 +6254,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>254</v>
@@ -6260,10 +6263,10 @@
         <v>261</v>
       </c>
       <c r="G41" s="11" t="s">
+        <v>934</v>
+      </c>
+      <c r="H41" s="11" t="s">
         <v>935</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>936</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
@@ -6278,7 +6281,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>254</v>
@@ -6287,10 +6290,10 @@
         <v>173</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
@@ -6305,7 +6308,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>254</v>
@@ -6317,7 +6320,7 @@
         <v>4</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -6332,7 +6335,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>254</v>
@@ -6344,10 +6347,10 @@
         <v>7</v>
       </c>
       <c r="H44" s="11" t="s">
+        <v>922</v>
+      </c>
+      <c r="I44" s="11" t="s">
         <v>923</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>924</v>
       </c>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
@@ -6361,7 +6364,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>254</v>
@@ -6373,7 +6376,7 @@
         <v>13</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="I45" s="17"/>
       <c r="J45" s="5"/>
@@ -6388,7 +6391,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>254</v>
@@ -6400,7 +6403,7 @@
         <v>13</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
@@ -6415,7 +6418,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>254</v>
@@ -6440,7 +6443,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>254</v>
@@ -6465,7 +6468,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>254</v>
@@ -6490,7 +6493,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>254</v>
@@ -6515,7 +6518,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>254</v>
@@ -6540,7 +6543,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>254</v>
@@ -6565,7 +6568,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>206</v>
@@ -6590,7 +6593,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>254</v>
@@ -6615,7 +6618,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>241</v>
@@ -6627,7 +6630,7 @@
         <v>59</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="5"/>
@@ -6642,7 +6645,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>241</v>
@@ -6654,7 +6657,7 @@
         <v>59</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="I56" s="11"/>
       <c r="J56" s="5"/>
@@ -6669,7 +6672,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>241</v>
@@ -6681,7 +6684,7 @@
         <v>56</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I57" s="11"/>
       <c r="J57" s="5"/>
@@ -6696,7 +6699,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>241</v>
@@ -6721,7 +6724,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>278</v>
@@ -6746,7 +6749,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>278</v>
@@ -6771,7 +6774,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>241</v>
@@ -7046,7 +7049,7 @@
         <v>71</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E72" s="11"/>
       <c r="F72" s="5"/>
@@ -7193,7 +7196,7 @@
         <v>13</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>909</v>
+        <v>954</v>
       </c>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
@@ -7226,7 +7229,7 @@
         <v>808</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>909</v>
+        <v>954</v>
       </c>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
@@ -12917,7 +12920,7 @@
         <v>280</v>
       </c>
       <c r="D281" s="18" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E281" s="11"/>
       <c r="F281" s="5"/>
@@ -12935,7 +12938,7 @@
         <v>281</v>
       </c>
       <c r="D282" s="8" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E282" s="11" t="s">
         <v>19</v>
@@ -12959,7 +12962,7 @@
         <v>282</v>
       </c>
       <c r="D283" s="8" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E283" s="11" t="s">
         <v>19</v>
@@ -12983,7 +12986,7 @@
         <v>283</v>
       </c>
       <c r="D284" s="8" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E284" s="5" t="s">
         <v>0</v>
@@ -12993,13 +12996,13 @@
       </c>
       <c r="G284" s="5"/>
       <c r="H284" s="5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I284" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="J284" s="5" t="s">
         <v>941</v>
-      </c>
-      <c r="J284" s="5" t="s">
-        <v>942</v>
       </c>
       <c r="K284" s="5"/>
       <c r="L284" s="5"/>
@@ -13233,7 +13236,7 @@
         <v>293</v>
       </c>
       <c r="D294" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E294" s="11"/>
       <c r="F294" s="5"/>
@@ -13375,7 +13378,7 @@
         <v>13</v>
       </c>
       <c r="H299" s="5" t="s">
-        <v>909</v>
+        <v>954</v>
       </c>
       <c r="I299" s="5"/>
       <c r="J299" s="5"/>
@@ -13407,7 +13410,7 @@
         <v>808</v>
       </c>
       <c r="J300" s="5" t="s">
-        <v>909</v>
+        <v>954</v>
       </c>
       <c r="K300" s="5"/>
       <c r="L300" s="5"/>
@@ -19067,7 +19070,7 @@
         <v>502</v>
       </c>
       <c r="D503" s="18" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E503" s="11"/>
       <c r="F503" s="5"/>
@@ -19085,7 +19088,7 @@
         <v>503</v>
       </c>
       <c r="D504" s="8" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E504" s="11" t="s">
         <v>19</v>
@@ -19109,7 +19112,7 @@
         <v>504</v>
       </c>
       <c r="D505" s="8" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E505" s="11" t="s">
         <v>19</v>
@@ -19133,7 +19136,7 @@
         <v>505</v>
       </c>
       <c r="D506" s="8" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E506" s="5" t="s">
         <v>0</v>
@@ -19143,13 +19146,13 @@
       </c>
       <c r="G506" s="5"/>
       <c r="H506" s="11" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="I506" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="J506" s="5" t="s">
         <v>941</v>
-      </c>
-      <c r="J506" s="5" t="s">
-        <v>942</v>
       </c>
       <c r="K506" s="5"/>
       <c r="L506" s="5"/>
@@ -19161,7 +19164,7 @@
         <v>506</v>
       </c>
       <c r="D507" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E507" s="11"/>
       <c r="F507" s="5"/>
@@ -19525,7 +19528,7 @@
         <v>13</v>
       </c>
       <c r="H521" s="5" t="s">
-        <v>909</v>
+        <v>954</v>
       </c>
       <c r="I521" s="5"/>
       <c r="J521" s="5"/>
@@ -19557,7 +19560,7 @@
         <v>808</v>
       </c>
       <c r="J522" s="5" t="s">
-        <v>909</v>
+        <v>954</v>
       </c>
       <c r="K522" s="5"/>
       <c r="L522" s="5"/>
@@ -25217,7 +25220,7 @@
         <v>724</v>
       </c>
       <c r="D725" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E725" s="6"/>
       <c r="F725" s="5"/>
@@ -25236,7 +25239,7 @@
         <v>725</v>
       </c>
       <c r="D726" s="8" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E726" s="5" t="s">
         <v>19</v>
@@ -25261,7 +25264,7 @@
         <v>726</v>
       </c>
       <c r="D727" s="8" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E727" s="5" t="s">
         <v>19</v>
@@ -25286,7 +25289,7 @@
         <v>727</v>
       </c>
       <c r="D728" s="8" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E728" s="5" t="s">
         <v>0</v>
@@ -25296,13 +25299,13 @@
       </c>
       <c r="G728" s="5"/>
       <c r="H728" s="5" t="s">
+        <v>943</v>
+      </c>
+      <c r="I728" s="5" t="s">
         <v>944</v>
       </c>
-      <c r="I728" s="5" t="s">
+      <c r="J728" s="5" t="s">
         <v>945</v>
-      </c>
-      <c r="J728" s="5" t="s">
-        <v>946</v>
       </c>
       <c r="K728" s="5"/>
       <c r="L728" s="5"/>
@@ -25351,7 +25354,7 @@
         <v>730</v>
       </c>
       <c r="D731" s="8" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E731" s="5" t="s">
         <v>19</v>
@@ -25375,7 +25378,7 @@
         <v>731</v>
       </c>
       <c r="D732" s="8" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E732" s="5" t="s">
         <v>19</v>
@@ -25399,7 +25402,7 @@
         <v>732</v>
       </c>
       <c r="D733" s="8" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E733" s="11" t="s">
         <v>241</v>
@@ -25411,7 +25414,7 @@
         <v>56</v>
       </c>
       <c r="H733" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="I733" s="5"/>
       <c r="J733" s="5"/>
@@ -25425,7 +25428,7 @@
         <v>733</v>
       </c>
       <c r="D734" s="8" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E734" s="11" t="s">
         <v>241</v>
@@ -25449,7 +25452,7 @@
         <v>734</v>
       </c>
       <c r="D735" s="8" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E735" s="11" t="s">
         <v>241</v>
@@ -25461,7 +25464,7 @@
         <v>56</v>
       </c>
       <c r="H735" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="I735" s="5"/>
       <c r="J735" s="5"/>
@@ -25475,7 +25478,7 @@
         <v>735</v>
       </c>
       <c r="D736" s="8" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E736" s="11" t="s">
         <v>241</v>
@@ -25499,7 +25502,7 @@
         <v>736</v>
       </c>
       <c r="D737" s="8" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E737" s="11" t="s">
         <v>241</v>
@@ -25511,7 +25514,7 @@
         <v>56</v>
       </c>
       <c r="H737" s="11" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I737" s="11"/>
       <c r="J737" s="5"/>
@@ -25526,7 +25529,7 @@
         <v>737</v>
       </c>
       <c r="D738" s="8" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E738" s="11" t="s">
         <v>241</v>
@@ -25551,7 +25554,7 @@
         <v>738</v>
       </c>
       <c r="D739" s="8" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E739" s="11" t="s">
         <v>278</v>
@@ -25576,7 +25579,7 @@
         <v>739</v>
       </c>
       <c r="D740" s="8" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E740" s="11" t="s">
         <v>278</v>
@@ -25601,7 +25604,7 @@
         <v>740</v>
       </c>
       <c r="D741" s="8" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E741" s="11" t="s">
         <v>241</v>

--- a/NformTester/NformTester/keywordscripts/TST936_DevicesSupportedByNformG2Product.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST936_DevicesSupportedByNformG2Product.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
@@ -5096,8 +5096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O741"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G518" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J522" sqref="J522"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6173,7 +6173,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>915</v>
+        <v>924</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>254</v>
@@ -25635,7 +25635,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D4 D726:D728 D282:D284 D504:D506 D8:D61 D731:D741">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D4 D726:D728 D282:D284 D504:D506 D731:D741 D8:D61">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G741">
